--- a/outputFiles/excel-from-js.xlsx
+++ b/outputFiles/excel-from-js.xlsx
@@ -1,41 +1,206 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\lamarty_ldsp\outputFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43574262-0D74-40E7-90E1-8CFC58274D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="58">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 K черный</t>
+  </si>
+  <si>
+    <t>м2</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 P серый 7810</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 P черный</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R дуб дымчатый</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R Эльбрус</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R ясень светлый</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 Р Белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R сканди</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R ясень</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Вулканический серый</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P вулканический серый</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P имбирь 01</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P кремовый 01</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R выбеленное дерево</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R дуб вотан</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D каньон песчаный</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 L Альфа</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 L Орион</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 L Терраццо</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 К Трансильвания</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Графит</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Клио</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Маренго</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Тэффи</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Фреска</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P алюминий</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P графит</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P Серый камень</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К бохо</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К графит</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К клауд</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К кэнди</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К рейн</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К софт</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К фантом</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К флай</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К флекс</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К хаки</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К хюгге</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К Цемент</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Альберо</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Винтаж</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Дельмар</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D кейптаун</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Либерти</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Небула</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Плэйн</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Феникс</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D* блэквуд</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D* намибия</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D* Соул</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D* Хронос</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 N Айронвуд</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Графика</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 V малави</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К Терра</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +230,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,21 +580,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="49.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v/>
-      </c>
-      <c r="B1" t="str">
-        <v>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 P серый 7810</v>
-      </c>
-      <c r="C1" t="str">
-        <v>м2</v>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="D1">
         <v>491</v>
@@ -422,15 +612,15 @@
         <v>1050.2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R дуб дымчатый</v>
-      </c>
-      <c r="C2" t="str">
-        <v>м2</v>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
       <c r="D2">
         <v>491</v>
@@ -442,15 +632,15 @@
         <v>1050.2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v/>
-      </c>
-      <c r="B3" t="str">
-        <v>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R Эльбрус</v>
-      </c>
-      <c r="C3" t="str">
-        <v>м2</v>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
       <c r="D3">
         <v>491</v>
@@ -462,15 +652,15 @@
         <v>1050.2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v/>
-      </c>
-      <c r="B4" t="str">
-        <v>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R ясень светлый</v>
-      </c>
-      <c r="C4" t="str">
-        <v>м2</v>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
       <c r="D4">
         <v>491</v>
@@ -482,15 +672,15 @@
         <v>1050.2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v/>
-      </c>
-      <c r="B5" t="str">
-        <v>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R ясень светлый</v>
-      </c>
-      <c r="C5" t="str">
-        <v>м2</v>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
       </c>
       <c r="D5">
         <v>491</v>
@@ -502,15 +692,15 @@
         <v>1050.2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v/>
-      </c>
-      <c r="B6" t="str">
-        <v>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 Р Белый</v>
-      </c>
-      <c r="C6" t="str">
-        <v>м2</v>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
       </c>
       <c r="D6">
         <v>491</v>
@@ -522,15 +712,15 @@
         <v>1050.2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-      <c r="B7" t="str">
-        <v>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R сканди</v>
-      </c>
-      <c r="C7" t="str">
-        <v>м2</v>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
       </c>
       <c r="D7">
         <v>491</v>
@@ -542,15 +732,15 @@
         <v>1050.2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v/>
-      </c>
-      <c r="B8" t="str">
-        <v>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R ясень</v>
-      </c>
-      <c r="C8" t="str">
-        <v>м2</v>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
       </c>
       <c r="D8">
         <v>491</v>
@@ -562,15 +752,15 @@
         <v>1050.2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v/>
-      </c>
-      <c r="B9" t="str">
-        <v>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Вулканический серый</v>
-      </c>
-      <c r="C9" t="str">
-        <v>м2</v>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
       </c>
       <c r="D9">
         <v>491</v>
@@ -582,15 +772,15 @@
         <v>1050.2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v/>
-      </c>
-      <c r="B10" t="str">
-        <v>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P вулканический серый</v>
-      </c>
-      <c r="C10" t="str">
-        <v>м2</v>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
       </c>
       <c r="D10">
         <v>491</v>
@@ -602,15 +792,15 @@
         <v>1050.2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v/>
-      </c>
-      <c r="B11" t="str">
-        <v>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P имбирь 01</v>
-      </c>
-      <c r="C11" t="str">
-        <v>м2</v>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
       </c>
       <c r="D11">
         <v>491</v>
@@ -622,15 +812,15 @@
         <v>1050.2</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v/>
-      </c>
-      <c r="B12" t="str">
-        <v>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P кремовый 01</v>
-      </c>
-      <c r="C12" t="str">
-        <v>м2</v>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
       </c>
       <c r="D12">
         <v>491</v>
@@ -642,15 +832,15 @@
         <v>1050.2</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v/>
-      </c>
-      <c r="B13" t="str">
-        <v>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R выбеленное дерево</v>
-      </c>
-      <c r="C13" t="str">
-        <v>м2</v>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
       </c>
       <c r="D13">
         <v>491</v>
@@ -662,15 +852,15 @@
         <v>1050.2</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v/>
-      </c>
-      <c r="B14" t="str">
-        <v>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R дуб вотан</v>
-      </c>
-      <c r="C14" t="str">
-        <v>м2</v>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
       </c>
       <c r="D14">
         <v>491</v>
@@ -682,9 +872,933 @@
         <v>1050.2</v>
       </c>
     </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>491</v>
+      </c>
+      <c r="E15">
+        <v>590</v>
+      </c>
+      <c r="F15">
+        <v>1050.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>552</v>
+      </c>
+      <c r="E16">
+        <v>670</v>
+      </c>
+      <c r="F16">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>551</v>
+      </c>
+      <c r="E17">
+        <v>670</v>
+      </c>
+      <c r="F17">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>551</v>
+      </c>
+      <c r="E18">
+        <v>670</v>
+      </c>
+      <c r="F18">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>551</v>
+      </c>
+      <c r="E19">
+        <v>670</v>
+      </c>
+      <c r="F19">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>551</v>
+      </c>
+      <c r="E20">
+        <v>670</v>
+      </c>
+      <c r="F20">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>551</v>
+      </c>
+      <c r="E21">
+        <v>670</v>
+      </c>
+      <c r="F21">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>551</v>
+      </c>
+      <c r="E22">
+        <v>670</v>
+      </c>
+      <c r="F22">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>551</v>
+      </c>
+      <c r="E23">
+        <v>670</v>
+      </c>
+      <c r="F23">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>551</v>
+      </c>
+      <c r="E24">
+        <v>670</v>
+      </c>
+      <c r="F24">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>551</v>
+      </c>
+      <c r="E25">
+        <v>670</v>
+      </c>
+      <c r="F25">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>551</v>
+      </c>
+      <c r="E26">
+        <v>670</v>
+      </c>
+      <c r="F26">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>551</v>
+      </c>
+      <c r="E27">
+        <v>670</v>
+      </c>
+      <c r="F27">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>551</v>
+      </c>
+      <c r="E28">
+        <v>670</v>
+      </c>
+      <c r="F28">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>551</v>
+      </c>
+      <c r="E29">
+        <v>670</v>
+      </c>
+      <c r="F29">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>551</v>
+      </c>
+      <c r="E30">
+        <v>670</v>
+      </c>
+      <c r="F30">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>551</v>
+      </c>
+      <c r="E31">
+        <v>670</v>
+      </c>
+      <c r="F31">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>551</v>
+      </c>
+      <c r="E32">
+        <v>670</v>
+      </c>
+      <c r="F32">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>551</v>
+      </c>
+      <c r="E33">
+        <v>670</v>
+      </c>
+      <c r="F33">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>551</v>
+      </c>
+      <c r="E34">
+        <v>670</v>
+      </c>
+      <c r="F34">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>551</v>
+      </c>
+      <c r="E35">
+        <v>670</v>
+      </c>
+      <c r="F35">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>551</v>
+      </c>
+      <c r="E36">
+        <v>670</v>
+      </c>
+      <c r="F36">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>551</v>
+      </c>
+      <c r="E37">
+        <v>670</v>
+      </c>
+      <c r="F37">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>551</v>
+      </c>
+      <c r="E38">
+        <v>670</v>
+      </c>
+      <c r="F38">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>551</v>
+      </c>
+      <c r="E39">
+        <v>670</v>
+      </c>
+      <c r="F39">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>551</v>
+      </c>
+      <c r="E40">
+        <v>670</v>
+      </c>
+      <c r="F40">
+        <v>1192.6000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>657</v>
+      </c>
+      <c r="E41">
+        <v>790</v>
+      </c>
+      <c r="F41">
+        <v>1406.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>657</v>
+      </c>
+      <c r="E42">
+        <v>790</v>
+      </c>
+      <c r="F42">
+        <v>1406.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>657</v>
+      </c>
+      <c r="E43">
+        <v>790</v>
+      </c>
+      <c r="F43">
+        <v>1406.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>657</v>
+      </c>
+      <c r="E44">
+        <v>790</v>
+      </c>
+      <c r="F44">
+        <v>1406.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>657</v>
+      </c>
+      <c r="E45">
+        <v>790</v>
+      </c>
+      <c r="F45">
+        <v>1406.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>657</v>
+      </c>
+      <c r="E46">
+        <v>790</v>
+      </c>
+      <c r="F46">
+        <v>1406.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>657</v>
+      </c>
+      <c r="E47">
+        <v>790</v>
+      </c>
+      <c r="F47">
+        <v>1406.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>657</v>
+      </c>
+      <c r="E48">
+        <v>790</v>
+      </c>
+      <c r="F48">
+        <v>1406.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>657</v>
+      </c>
+      <c r="E49">
+        <v>790</v>
+      </c>
+      <c r="F49">
+        <v>1406.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>657</v>
+      </c>
+      <c r="E50">
+        <v>790</v>
+      </c>
+      <c r="F50">
+        <v>1406.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>657</v>
+      </c>
+      <c r="E51">
+        <v>790</v>
+      </c>
+      <c r="F51">
+        <v>1406.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>657</v>
+      </c>
+      <c r="E52">
+        <v>790</v>
+      </c>
+      <c r="F52">
+        <v>1406.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>657</v>
+      </c>
+      <c r="E53">
+        <v>790</v>
+      </c>
+      <c r="F53">
+        <v>1406.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>728</v>
+      </c>
+      <c r="E54">
+        <v>880</v>
+      </c>
+      <c r="F54">
+        <v>1566.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>728</v>
+      </c>
+      <c r="E55">
+        <v>880</v>
+      </c>
+      <c r="F55">
+        <v>1566.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>728</v>
+      </c>
+      <c r="E56">
+        <v>880</v>
+      </c>
+      <c r="F56">
+        <v>1566.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>728</v>
+      </c>
+      <c r="E57">
+        <v>880</v>
+      </c>
+      <c r="F57">
+        <v>1566.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>591</v>
+      </c>
+      <c r="E58">
+        <v>710</v>
+      </c>
+      <c r="F58">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>591</v>
+      </c>
+      <c r="E59">
+        <v>710</v>
+      </c>
+      <c r="F59">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>591</v>
+      </c>
+      <c r="E60">
+        <v>710</v>
+      </c>
+      <c r="F60">
+        <v>1263.8</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
+    <ignoredError sqref="A1:F1 A7:F60 A4:F6 A2:F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/outputFiles/excel-from-js.xlsx
+++ b/outputFiles/excel-from-js.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\lamarty_ldsp\outputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43574262-0D74-40E7-90E1-8CFC58274D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5E2602-DD51-4A34-B022-6E21E9DAB150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="63">
   <si>
     <t/>
   </si>
@@ -73,9 +73,18 @@
     <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R дуб вотан</t>
   </si>
   <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Бетон пайн белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Бетон пайн экзотик</t>
+  </si>
+  <si>
     <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D каньон песчаный</t>
   </si>
   <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 U белоснежный</t>
+  </si>
+  <si>
     <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 L Альфа</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Маренго</t>
   </si>
   <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Соната</t>
+  </si>
+  <si>
     <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Тэффи</t>
   </si>
   <si>
@@ -112,6 +124,9 @@
     <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P Серый камень</t>
   </si>
   <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 V слэйт</t>
+  </si>
+  <si>
     <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К бохо</t>
   </si>
   <si>
@@ -172,6 +187,9 @@
     <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Феникс</t>
   </si>
   <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 N Айронвуд</t>
+  </si>
+  <si>
     <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D* блэквуд</t>
   </si>
   <si>
@@ -182,9 +200,6 @@
   </si>
   <si>
     <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D* Хронос</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 N Айронвуд</t>
   </si>
   <si>
     <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Графика</t>
@@ -235,18 +250,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -581,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -637,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -657,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -677,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -697,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -717,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -737,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -757,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -777,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -797,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -817,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -837,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -857,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -877,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -897,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="E16">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="F16">
-        <v>1192.6000000000001</v>
+        <v>1050.2</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -917,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>551</v>
+        <v>491</v>
       </c>
       <c r="E17">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="F17">
-        <v>1192.6000000000001</v>
+        <v>1050.2</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -937,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>551</v>
+        <v>491</v>
       </c>
       <c r="E18">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="F18">
-        <v>1192.6000000000001</v>
+        <v>1050.2</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -957,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E19">
         <v>670</v>
@@ -977,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E20">
         <v>670</v>
@@ -997,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E21">
         <v>670</v>
@@ -1017,13 +1021,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E22">
         <v>670</v>
@@ -1037,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>551</v>
+        <v>623</v>
       </c>
       <c r="E23">
-        <v>670</v>
+        <v>750</v>
       </c>
       <c r="F23">
-        <v>1192.6000000000001</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1057,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -1077,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -1097,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1117,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1137,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -1157,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1177,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -1197,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -1217,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -1237,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -1257,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -1277,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1297,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1317,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -1337,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -1357,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1377,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1397,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41">
-        <v>657</v>
+        <v>551</v>
       </c>
       <c r="E41">
-        <v>790</v>
+        <v>670</v>
       </c>
       <c r="F41">
-        <v>1406.2</v>
+        <v>1192.6000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1417,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>657</v>
+        <v>551</v>
       </c>
       <c r="E42">
-        <v>790</v>
+        <v>670</v>
       </c>
       <c r="F42">
-        <v>1406.2</v>
+        <v>1192.6000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1437,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>657</v>
+        <v>551</v>
       </c>
       <c r="E43">
-        <v>790</v>
+        <v>670</v>
       </c>
       <c r="F43">
-        <v>1406.2</v>
+        <v>1192.6000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1457,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
       <c r="D44">
-        <v>657</v>
+        <v>551</v>
       </c>
       <c r="E44">
-        <v>790</v>
+        <v>670</v>
       </c>
       <c r="F44">
-        <v>1406.2</v>
+        <v>1192.6000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1477,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>657</v>
+        <v>551</v>
       </c>
       <c r="E45">
-        <v>790</v>
+        <v>670</v>
       </c>
       <c r="F45">
-        <v>1406.2</v>
+        <v>1192.6000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1497,19 +1501,19 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46">
-        <v>657</v>
+        <v>551</v>
       </c>
       <c r="E46">
-        <v>790</v>
+        <v>670</v>
       </c>
       <c r="F46">
-        <v>1406.2</v>
+        <v>1192.6000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1517,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
       <c r="D47">
-        <v>657</v>
+        <v>551</v>
       </c>
       <c r="E47">
-        <v>790</v>
+        <v>670</v>
       </c>
       <c r="F47">
-        <v>1406.2</v>
+        <v>1192.6000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1537,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
       <c r="D48">
-        <v>657</v>
+        <v>551</v>
       </c>
       <c r="E48">
-        <v>790</v>
+        <v>670</v>
       </c>
       <c r="F48">
-        <v>1406.2</v>
+        <v>1192.6000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1557,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
       <c r="D49">
-        <v>657</v>
+        <v>551</v>
       </c>
       <c r="E49">
-        <v>790</v>
+        <v>670</v>
       </c>
       <c r="F49">
-        <v>1406.2</v>
+        <v>1192.6000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1577,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -1597,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -1617,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1637,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -1657,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
       </c>
       <c r="D54">
-        <v>728</v>
+        <v>657</v>
       </c>
       <c r="E54">
-        <v>880</v>
+        <v>790</v>
       </c>
       <c r="F54">
-        <v>1566.4</v>
+        <v>1406.2</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1677,19 +1681,19 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
       <c r="D55">
-        <v>728</v>
+        <v>657</v>
       </c>
       <c r="E55">
-        <v>880</v>
+        <v>790</v>
       </c>
       <c r="F55">
-        <v>1566.4</v>
+        <v>1406.2</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1697,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
       <c r="D56">
-        <v>728</v>
+        <v>657</v>
       </c>
       <c r="E56">
-        <v>880</v>
+        <v>790</v>
       </c>
       <c r="F56">
-        <v>1566.4</v>
+        <v>1406.2</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1717,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
       <c r="D57">
-        <v>728</v>
+        <v>657</v>
       </c>
       <c r="E57">
-        <v>880</v>
+        <v>790</v>
       </c>
       <c r="F57">
-        <v>1566.4</v>
+        <v>1406.2</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1743,13 +1747,13 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>591</v>
+        <v>657</v>
       </c>
       <c r="E58">
-        <v>710</v>
+        <v>790</v>
       </c>
       <c r="F58">
-        <v>1263.8</v>
+        <v>1406.2</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1763,13 +1767,13 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <v>591</v>
+        <v>728</v>
       </c>
       <c r="E59">
-        <v>710</v>
+        <v>880</v>
       </c>
       <c r="F59">
-        <v>1263.8</v>
+        <v>1566.4</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1783,22 +1787,119 @@
         <v>2</v>
       </c>
       <c r="D60">
+        <v>728</v>
+      </c>
+      <c r="E60">
+        <v>880</v>
+      </c>
+      <c r="F60">
+        <v>1566.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>728</v>
+      </c>
+      <c r="E61">
+        <v>880</v>
+      </c>
+      <c r="F61">
+        <v>1566.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>728</v>
+      </c>
+      <c r="E62">
+        <v>880</v>
+      </c>
+      <c r="F62">
+        <v>1566.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63">
         <v>591</v>
       </c>
-      <c r="E60">
+      <c r="E63">
         <v>710</v>
       </c>
-      <c r="F60">
+      <c r="F63">
         <v>1263.8</v>
       </c>
     </row>
+    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>591</v>
+      </c>
+      <c r="E64">
+        <v>710</v>
+      </c>
+      <c r="F64">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>591</v>
+      </c>
+      <c r="E65">
+        <v>710</v>
+      </c>
+      <c r="F65">
+        <v>1263.8</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1 A7:F60 A4:F6 A2:F3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F65" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/outputFiles/excel-from-js.xlsx
+++ b/outputFiles/excel-from-js.xlsx
@@ -8,69 +8,93 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\lamarty_ldsp\outputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5E2602-DD51-4A34-B022-6E21E9DAB150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E92CB90-E27F-4377-9B13-B509D24C8698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="349">
   <si>
     <t/>
   </si>
   <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R Эльбрус</t>
+  </si>
+  <si>
+    <t>м2</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R дуб сонома</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R выбеленное дерево</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 Р Белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R ясень</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R Пальмира</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P Белоснежный</t>
+  </si>
+  <si>
     <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 K черный</t>
   </si>
   <si>
-    <t>м2</t>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R сканди</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P кремовый</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 T дуб молочный</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R дуб вотан</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 L Белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P вулканический серый</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R венге соренто</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0.5 2750*1830 А имбирь</t>
   </si>
   <si>
     <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 P серый 7810</t>
   </si>
   <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R дуб дымчатый</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R ясень светлый</t>
+  </si>
+  <si>
     <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 P черный</t>
   </si>
   <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R дуб дымчатый</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R Эльбрус</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R ясень светлый</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 Р Белый</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R сканди</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R ясень</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Вулканический серый</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P вулканический серый</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P имбирь 01</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P кремовый 01</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R выбеленное дерево</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 R дуб вотан</t>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D каньон песчаный</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D каньон ледяной</t>
   </si>
   <si>
     <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Бетон пайн белый</t>
@@ -79,136 +103,970 @@
     <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Бетон пайн экзотик</t>
   </si>
   <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D каньон песчаный</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 U белоснежный</t>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 V слэйт</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 T береза мраморная</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Фреска</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 L Орион</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P Серый камень</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P алюминий</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К графит</t>
   </si>
   <si>
     <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 L Альфа</t>
   </si>
   <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 L Орион</t>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 T дуб галиано</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К Цемент</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Тэффи</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К флекс</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К флай</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К бохо</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Маренго</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К хаки</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Соната</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К софт</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Графит</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0.5 2750*1830 T береза нордик</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Клио</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 К Трансильвания</t>
   </si>
   <si>
     <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 L Терраццо</t>
   </si>
   <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 К Трансильвания</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Графит</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Клио</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Маренго</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Соната</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Тэффи</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Фреска</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P алюминий</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P графит</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 P Серый камень</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 V слэйт</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К бохо</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К графит</t>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К фантом</t>
   </si>
   <si>
     <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К клауд</t>
   </si>
   <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К кэнди</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К рейн</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К софт</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К фантом</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К флай</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К флекс</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К хаки</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К хюгге</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К Цемент</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Альберо</t>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Дельмар</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D кейптаун</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Феникс</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 N Айронвуд</t>
   </si>
   <si>
     <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Винтаж</t>
   </si>
   <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Дельмар</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D кейптаун</t>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Небула</t>
   </si>
   <si>
     <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Либерти</t>
   </si>
   <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Небула</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Плэйн</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D Феникс</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 N Айронвуд</t>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D* Хронос</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D* намибия</t>
   </si>
   <si>
     <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D* блэквуд</t>
   </si>
   <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D* намибия</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D* Соул</t>
-  </si>
-  <si>
-    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D* Хронос</t>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D* Альберо</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 V малави</t>
   </si>
   <si>
     <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 L Графика</t>
   </si>
   <si>
-    <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 V малави</t>
-  </si>
-  <si>
     <t>ЛДСП 10 Ст1 Р2 Е0,5 2750*1830 К Терра</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 D* Одиссея</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 L Белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 Т белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Супер белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Ясень Борнхольм</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р5 Е1 2750*1830 K серый 7810</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 T бук натур</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 T дуб молочный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 T белый кристалл</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Бетон пайн белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 F черный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 V Вулканический серый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 T ноче мария луиза</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R ясень темный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р5 Е1 2750*1830 L белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К Вулканический серый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L белый кристалл</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Пальмира</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 R черный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Вяз Швейцарский</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 A белый кристалл</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 R песчаный каньон</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R венге темный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Дуб Вотан</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R венге соренто</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 T бук бавария светлый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 К бетон пайн белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L кремовый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Интра</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Эльбрус</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р5 Е1   2750*1830 L белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 T ноче экко</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P арабика</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К Супер белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Бетон пайн экзотик</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 T ясень темный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 P серый 7810</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 Т Эльбрус</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 T ноче гварнери</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R ясень</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 T венге соренто</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P имбирь</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е 0,5 2750*1830 A имбирь</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R ясень светлый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 T ольха светлая</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К черный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 P кремовый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 R ледяной каньон</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 R выбеленное дерево</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р5 Е1   2750*1830 L супер белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Сканди</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К кремовый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р5 Е1 2750*1830 L супер белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р5 Е1 2750*1830 Т Ноче Экко</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 R капучино</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р5 Е1 2750*1830 O белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 R бамбук</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P Супер белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 P Вулканический серый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P черный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 A аликанте</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R дуб дымчатый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 T ясень светлый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 P белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L вулканический серый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 К бетон пайн экзотик</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р5 Е1 2750*1830 K белый кристалл</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 T вишня оксфорд</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 T калипсо</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Дуб сонома</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р5 Е1 2750*1830 L белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р5 Е1   2750*1830 Т Ноче Экко</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 P белый*</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D каньон ледяной</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D бетон пайн белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 G белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 D белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 US черный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D каньон песчаный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D вяз швейцарский</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 US белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 N Белый кристалл</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D бетон пайн экзотик</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D дуб дымчатый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р5 Е1 2750*1830 US белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 U белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 U белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 U черный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 N* Черный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К Графит</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P чили</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Графит</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 P титан</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 T дуб галиано</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P графит</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К Гамбия</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 V Слэйт</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 V рускеала</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 T береза нордик</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К Флекс</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К бохо</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Ориноко</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Альфа</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К фантом</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Соната</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 T дуб марсала</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 T дуб кальяри</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 К Цемент</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R альберо</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Блэквуд</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Маренго</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Орион</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 V Помпеи</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 T береза мраморная</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Терраццо</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P лайм</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К Софт</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Серый камень</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Фреска</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Клио</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Тэффи</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 V трансильвания</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 A Этно</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P слэйт</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P серый камень</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К Рамбла</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R орех неаполь</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 R ноче мондиале</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К Трансильвания</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 V серый камень</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P алюминий</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 O сепия</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К муссон</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К серый камень</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Сосна Санторини</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Кейптаун</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Намибия</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 T вишня гамильтон</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 V Цемент</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 V Карум</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P манго</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К хаки</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К Флай</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К Клауд</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D Феникс</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D Кейптаун</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D Руанда</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D Айронвуд</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D Либерти</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D Айконик</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D Дельмар</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D Винтаж</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D орех мармара</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 N Айронвуд</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D фламинго</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D Небула</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 N Цемент</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 N* альфа</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D* Блэквуд</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D* Альберо</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 N* графит</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D* Хронос</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D* Намибия</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 P розовый жемчуг</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 V Малави</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Малави</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 R дуб солсбери</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P Коралл</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 P аметист</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Серенити</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P скала</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R элит баттл рок</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Графика</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Аметист</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P солнечный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Гринери</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Розовый кварц</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К Терра</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 К Парма</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Магма</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 P ирис</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 N магма</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 N* графика</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 D* Одиссея</t>
+  </si>
+  <si>
+    <t>ЛДСП 18 Ст1 Р2 Е0,5 2750*1830 К серый 7810</t>
+  </si>
+  <si>
+    <t>ЛДСП 18 Ст1 Р2 Е0,5 2750*1830 P белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 18 Ст1 P2 Е0,5 2750*1830 T дуб молочный</t>
+  </si>
+  <si>
+    <t>ЛДСП 18 Ст1 P2 Е0,5 2750*1830 P Белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 18 Ст1 P2 Е0,5 2750*1830 T венге соренто</t>
+  </si>
+  <si>
+    <t>ЛДСП 18 Ст1 P2 Е0,5 2750*1830 L белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 18 Ст1 P2 Е0,5 2750*1830 O белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 18 Ст1 Р2 Е0,5 2750*1830 R дуб дымчатый</t>
+  </si>
+  <si>
+    <t>ЛДСП 18 Ст1 Р2 Е0,5 2750*1830 R Дуб Вотан</t>
+  </si>
+  <si>
+    <t>ЛДСП 18 Ст1 Р2 Е0,5 2750*1830 V Слэйт</t>
+  </si>
+  <si>
+    <t>ЛДСП 18 Ст1 Р2 Е0,5 2750*1830 R дуб галиано</t>
+  </si>
+  <si>
+    <t>ЛДСП 18 Ст1 P2 Е0,5 2750*1830 D* Элит Баттл Рок</t>
+  </si>
+  <si>
+    <t>ЛДСП 22 Ст1 P2 Е0,5 2750*1830 T Дуб молочный</t>
+  </si>
+  <si>
+    <t>ЛДСП 22 Ст1 Р2 Е0,5 2750*1830 P Белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 22 Ст1 Р2 Е0,5 2750*1830 T ноче гварнери</t>
+  </si>
+  <si>
+    <t>ЛДСП 22 Ст1 P2 Е0,5 2750*1830 T венге соренто</t>
+  </si>
+  <si>
+    <t>ЛДСП 22 Ст1 Р2 Е0,5 2750*1830 P черный</t>
+  </si>
+  <si>
+    <t>ЛДСП 22 Ст1 P2 Е0,5 2750*1830 T венге темный</t>
+  </si>
+  <si>
+    <t>ЛДСП 22 Ст1 P2 Е0,5 2750*1830 R дуб сонома</t>
+  </si>
+  <si>
+    <t>ЛДСП 22 Ст1 Р2 Е0,5 2750*1830 P белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 22 Ст1 Р2 Е0,5 2750*1830 T бук бавария светлый</t>
+  </si>
+  <si>
+    <t>ЛДСП 22 Ст1 Р2 Е0,5 2750*1830 L белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 22 Ст1 P2 Е0,5 2750*1830 T Береза нордик</t>
+  </si>
+  <si>
+    <t>ЛДСП 22 Ст1 Р2 Е0,5 2750*1830 V слэйт</t>
+  </si>
+  <si>
+    <t>ЛДСП 22 Ст1 P2 Е0,5 2750*1830 D* намибия</t>
+  </si>
+  <si>
+    <t>ЛДСП 22 Ст1 P2 Е0,5 2750*1830 К Парма</t>
+  </si>
+  <si>
+    <t>ЛДСП 22 Ст1 Р2 Е0,5 2750*1830 V малави</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 К Белый кристалл</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 L Белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 R дуб вотан</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 P супер белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 А имбирь</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 L Белый кристалл</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 P черный</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 P Белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 К Вулканический серый</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 P серый 7810</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 R дуб дымчатый</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 R выбеленное дерево</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 P белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 R черный</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 T Венге соренто</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 D бетон пайн экзотик</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 D бетон пайн белый</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 D каньон ледяной</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 U белоснежный</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 R Ориноко</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 L клио</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 T дуб кальяри</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 L орион</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 К софт</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 К Цемент, м2</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 К Рамбла</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 P графит</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 L маренго</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 К фантом</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 P серый камень</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 L тэффи</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 К Цемент</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 К трансильвания</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 L муссон</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 D Руанда</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 D дельмар</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 D Кейптаун</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 D феникс</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 D небула</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 N айронвуд</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 D* Альберо</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 D* Блэквуд</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 D* Хронос</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 D* Намибия</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 К Терра</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 P аметист</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 V Малави</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 P2 Е0,5 2750*1830 R Элит Баттл Рок</t>
+  </si>
+  <si>
+    <t>ЛДСП 10 Ст1 P2 Е0,5 2750*1830 R Шинон</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R олива шоколад</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 A мадейра</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 V Кайман</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 P зеленый</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 V Индиго</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 P лимонный</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 R орех лугано</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 L Аква</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 T клен танзау</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 O аква</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P пинк</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 P бронза</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 P топаз</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 Р2 Е0,5 2750*1830 Т кремоно шампань</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 R Шинон</t>
+  </si>
+  <si>
+    <t>ЛДСП 16 Ст1 P2 Е0,5 2750*1830 P синий</t>
+  </si>
+  <si>
+    <t>ЛДСП Винтаж 16мм</t>
+  </si>
+  <si>
+    <t>ЛДСП 25 Ст1 Р2 Е0,5 2750*1830 R ясень</t>
+  </si>
+  <si>
+    <t>ЛДСП 26 Ст1 Р2 Е0,5 2750*1830 R орех лугано</t>
   </si>
 </sst>
 </file>
@@ -250,7 +1108,18 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -585,15 +1454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F674"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="B345" sqref="B345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -621,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -641,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -661,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -681,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -701,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -721,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -741,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -761,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -781,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -801,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -821,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -841,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -861,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -881,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -901,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -921,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -941,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -961,19 +1830,19 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="E19">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="F19">
-        <v>1192.6000000000001</v>
+        <v>1050.2</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -981,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="E20">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="F20">
-        <v>1192.6000000000001</v>
+        <v>1050.2</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1001,19 +1870,19 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="E21">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="F21">
-        <v>1192.6000000000001</v>
+        <v>1050.2</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1021,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1041,19 +1910,19 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>623</v>
+        <v>552</v>
       </c>
       <c r="E23">
-        <v>750</v>
+        <v>670</v>
       </c>
       <c r="F23">
-        <v>1335</v>
+        <v>1192.6000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1061,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E24">
         <v>670</v>
@@ -1081,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -1101,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1121,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1141,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -1161,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1181,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -1201,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -1221,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -1241,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -1261,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -1281,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1301,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1321,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -1341,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -1361,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1381,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1401,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -1421,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -1441,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -1461,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1481,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -1501,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1521,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1541,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -1561,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -1581,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -1601,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -1621,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1641,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -1661,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -1681,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -1701,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -1721,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
       <c r="D57">
-        <v>657</v>
+        <v>728</v>
       </c>
       <c r="E57">
-        <v>790</v>
+        <v>880</v>
       </c>
       <c r="F57">
-        <v>1406.2</v>
+        <v>1566.4</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1741,19 +2610,19 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
       <c r="D58">
-        <v>657</v>
+        <v>728</v>
       </c>
       <c r="E58">
-        <v>790</v>
+        <v>880</v>
       </c>
       <c r="F58">
-        <v>1406.2</v>
+        <v>1566.4</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1761,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -1781,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -1801,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
       </c>
       <c r="D61">
-        <v>728</v>
+        <v>591</v>
       </c>
       <c r="E61">
-        <v>880</v>
+        <v>710</v>
       </c>
       <c r="F61">
-        <v>1566.4</v>
+        <v>1263.8</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1821,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
       </c>
       <c r="D62">
-        <v>728</v>
+        <v>591</v>
       </c>
       <c r="E62">
-        <v>880</v>
+        <v>710</v>
       </c>
       <c r="F62">
-        <v>1566.4</v>
+        <v>1263.8</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1841,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -1861,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
       <c r="D64">
-        <v>591</v>
+        <v>826</v>
       </c>
       <c r="E64">
-        <v>710</v>
+        <v>1000</v>
       </c>
       <c r="F64">
-        <v>1263.8</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1881,25 +2750,6965 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>536</v>
+      </c>
+      <c r="E65">
+        <v>650</v>
+      </c>
+      <c r="F65">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>536</v>
+      </c>
+      <c r="E66">
+        <v>650</v>
+      </c>
+      <c r="F66">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>536</v>
+      </c>
+      <c r="E67">
+        <v>650</v>
+      </c>
+      <c r="F67">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>536</v>
+      </c>
+      <c r="E68">
+        <v>650</v>
+      </c>
+      <c r="F68">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>536</v>
+      </c>
+      <c r="E69">
+        <v>650</v>
+      </c>
+      <c r="F69">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>536</v>
+      </c>
+      <c r="E70">
+        <v>650</v>
+      </c>
+      <c r="F70">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>536</v>
+      </c>
+      <c r="E71">
+        <v>650</v>
+      </c>
+      <c r="F71">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>536</v>
+      </c>
+      <c r="E72">
+        <v>650</v>
+      </c>
+      <c r="F72">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>536</v>
+      </c>
+      <c r="E73">
+        <v>650</v>
+      </c>
+      <c r="F73">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>536</v>
+      </c>
+      <c r="E74">
+        <v>650</v>
+      </c>
+      <c r="F74">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>536</v>
+      </c>
+      <c r="E75">
+        <v>650</v>
+      </c>
+      <c r="F75">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>536</v>
+      </c>
+      <c r="E76">
+        <v>650</v>
+      </c>
+      <c r="F76">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>536</v>
+      </c>
+      <c r="E77">
+        <v>650</v>
+      </c>
+      <c r="F77">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>536</v>
+      </c>
+      <c r="E78">
+        <v>650</v>
+      </c>
+      <c r="F78">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>536</v>
+      </c>
+      <c r="E79">
+        <v>650</v>
+      </c>
+      <c r="F79">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>536</v>
+      </c>
+      <c r="E80">
+        <v>650</v>
+      </c>
+      <c r="F80">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>536</v>
+      </c>
+      <c r="E81">
+        <v>650</v>
+      </c>
+      <c r="F81">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>536</v>
+      </c>
+      <c r="E82">
+        <v>650</v>
+      </c>
+      <c r="F82">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>536</v>
+      </c>
+      <c r="E83">
+        <v>650</v>
+      </c>
+      <c r="F83">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>536</v>
+      </c>
+      <c r="E84">
+        <v>650</v>
+      </c>
+      <c r="F84">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>536</v>
+      </c>
+      <c r="E85">
+        <v>650</v>
+      </c>
+      <c r="F85">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>536</v>
+      </c>
+      <c r="E86">
+        <v>650</v>
+      </c>
+      <c r="F86">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>536</v>
+      </c>
+      <c r="E87">
+        <v>650</v>
+      </c>
+      <c r="F87">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>536</v>
+      </c>
+      <c r="E88">
+        <v>650</v>
+      </c>
+      <c r="F88">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>536</v>
+      </c>
+      <c r="E89">
+        <v>650</v>
+      </c>
+      <c r="F89">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>536</v>
+      </c>
+      <c r="E90">
+        <v>650</v>
+      </c>
+      <c r="F90">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>536</v>
+      </c>
+      <c r="E91">
+        <v>650</v>
+      </c>
+      <c r="F91">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>536</v>
+      </c>
+      <c r="E92">
+        <v>650</v>
+      </c>
+      <c r="F92">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>536</v>
+      </c>
+      <c r="E93">
+        <v>650</v>
+      </c>
+      <c r="F93">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>536</v>
+      </c>
+      <c r="E94">
+        <v>650</v>
+      </c>
+      <c r="F94">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>536</v>
+      </c>
+      <c r="E95">
+        <v>650</v>
+      </c>
+      <c r="F95">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>536</v>
+      </c>
+      <c r="E96">
+        <v>650</v>
+      </c>
+      <c r="F96">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>536</v>
+      </c>
+      <c r="E97">
+        <v>650</v>
+      </c>
+      <c r="F97">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>536</v>
+      </c>
+      <c r="E98">
+        <v>650</v>
+      </c>
+      <c r="F98">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>536</v>
+      </c>
+      <c r="E99">
+        <v>650</v>
+      </c>
+      <c r="F99">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>536</v>
+      </c>
+      <c r="E100">
+        <v>650</v>
+      </c>
+      <c r="F100">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>536</v>
+      </c>
+      <c r="E101">
+        <v>650</v>
+      </c>
+      <c r="F101">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>536</v>
+      </c>
+      <c r="E102">
+        <v>650</v>
+      </c>
+      <c r="F102">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>536</v>
+      </c>
+      <c r="E103">
+        <v>650</v>
+      </c>
+      <c r="F103">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>536</v>
+      </c>
+      <c r="E104">
+        <v>650</v>
+      </c>
+      <c r="F104">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>536</v>
+      </c>
+      <c r="E105">
+        <v>650</v>
+      </c>
+      <c r="F105">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>536</v>
+      </c>
+      <c r="E106">
+        <v>650</v>
+      </c>
+      <c r="F106">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>536</v>
+      </c>
+      <c r="E107">
+        <v>650</v>
+      </c>
+      <c r="F107">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>536</v>
+      </c>
+      <c r="E108">
+        <v>650</v>
+      </c>
+      <c r="F108">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>536</v>
+      </c>
+      <c r="E109">
+        <v>650</v>
+      </c>
+      <c r="F109">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>536</v>
+      </c>
+      <c r="E110">
+        <v>650</v>
+      </c>
+      <c r="F110">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>536</v>
+      </c>
+      <c r="E111">
+        <v>650</v>
+      </c>
+      <c r="F111">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>536</v>
+      </c>
+      <c r="E112">
+        <v>650</v>
+      </c>
+      <c r="F112">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>536</v>
+      </c>
+      <c r="E113">
+        <v>650</v>
+      </c>
+      <c r="F113">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>536</v>
+      </c>
+      <c r="E114">
+        <v>650</v>
+      </c>
+      <c r="F114">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>536</v>
+      </c>
+      <c r="E115">
+        <v>650</v>
+      </c>
+      <c r="F115">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>536</v>
+      </c>
+      <c r="E116">
+        <v>650</v>
+      </c>
+      <c r="F116">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>536</v>
+      </c>
+      <c r="E117">
+        <v>650</v>
+      </c>
+      <c r="F117">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>536</v>
+      </c>
+      <c r="E118">
+        <v>650</v>
+      </c>
+      <c r="F118">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>536</v>
+      </c>
+      <c r="E119">
+        <v>650</v>
+      </c>
+      <c r="F119">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>536</v>
+      </c>
+      <c r="E120">
+        <v>650</v>
+      </c>
+      <c r="F120">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>536</v>
+      </c>
+      <c r="E121">
+        <v>650</v>
+      </c>
+      <c r="F121">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>536</v>
+      </c>
+      <c r="E122">
+        <v>650</v>
+      </c>
+      <c r="F122">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>128</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>536</v>
+      </c>
+      <c r="E123">
+        <v>650</v>
+      </c>
+      <c r="F123">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>536</v>
+      </c>
+      <c r="E124">
+        <v>650</v>
+      </c>
+      <c r="F124">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>536</v>
+      </c>
+      <c r="E125">
+        <v>650</v>
+      </c>
+      <c r="F125">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>536</v>
+      </c>
+      <c r="E126">
+        <v>650</v>
+      </c>
+      <c r="F126">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>132</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>536</v>
+      </c>
+      <c r="E127">
+        <v>650</v>
+      </c>
+      <c r="F127">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>536</v>
+      </c>
+      <c r="E128">
+        <v>650</v>
+      </c>
+      <c r="F128">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>536</v>
+      </c>
+      <c r="E129">
+        <v>650</v>
+      </c>
+      <c r="F129">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>135</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>536</v>
+      </c>
+      <c r="E130">
+        <v>650</v>
+      </c>
+      <c r="F130">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>137</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>536</v>
+      </c>
+      <c r="E131">
+        <v>650</v>
+      </c>
+      <c r="F131">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>138</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>536</v>
+      </c>
+      <c r="E132">
+        <v>650</v>
+      </c>
+      <c r="F132">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>536</v>
+      </c>
+      <c r="E133">
+        <v>650</v>
+      </c>
+      <c r="F133">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>140</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>536</v>
+      </c>
+      <c r="E134">
+        <v>650</v>
+      </c>
+      <c r="F134">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>536</v>
+      </c>
+      <c r="E135">
+        <v>650</v>
+      </c>
+      <c r="F135">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>578</v>
+      </c>
+      <c r="E136">
+        <v>700</v>
+      </c>
+      <c r="F136">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>578</v>
+      </c>
+      <c r="E137">
+        <v>700</v>
+      </c>
+      <c r="F137">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>145</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>578</v>
+      </c>
+      <c r="E138">
+        <v>700</v>
+      </c>
+      <c r="F138">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>578</v>
+      </c>
+      <c r="E139">
+        <v>700</v>
+      </c>
+      <c r="F139">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>147</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>578</v>
+      </c>
+      <c r="E140">
+        <v>700</v>
+      </c>
+      <c r="F140">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>578</v>
+      </c>
+      <c r="E141">
+        <v>700</v>
+      </c>
+      <c r="F141">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>578</v>
+      </c>
+      <c r="E142">
+        <v>700</v>
+      </c>
+      <c r="F142">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>150</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>578</v>
+      </c>
+      <c r="E143">
+        <v>700</v>
+      </c>
+      <c r="F143">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>152</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>578</v>
+      </c>
+      <c r="E144">
+        <v>700</v>
+      </c>
+      <c r="F144">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>153</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>578</v>
+      </c>
+      <c r="E145">
+        <v>700</v>
+      </c>
+      <c r="F145">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>154</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>578</v>
+      </c>
+      <c r="E146">
+        <v>700</v>
+      </c>
+      <c r="F146">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>155</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>641</v>
+      </c>
+      <c r="E147">
+        <v>770</v>
+      </c>
+      <c r="F147">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>641</v>
+      </c>
+      <c r="E148">
+        <v>770</v>
+      </c>
+      <c r="F148">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>641</v>
+      </c>
+      <c r="E149">
+        <v>770</v>
+      </c>
+      <c r="F149">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>641</v>
+      </c>
+      <c r="E150">
+        <v>770</v>
+      </c>
+      <c r="F150">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>586</v>
+      </c>
+      <c r="E151">
+        <v>710</v>
+      </c>
+      <c r="F151">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>586</v>
+      </c>
+      <c r="E152">
+        <v>710</v>
+      </c>
+      <c r="F152">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>74</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>586</v>
+      </c>
+      <c r="E153">
+        <v>710</v>
+      </c>
+      <c r="F153">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>161</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>586</v>
+      </c>
+      <c r="E154">
+        <v>710</v>
+      </c>
+      <c r="F154">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>162</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>586</v>
+      </c>
+      <c r="E155">
+        <v>710</v>
+      </c>
+      <c r="F155">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>586</v>
+      </c>
+      <c r="E156">
+        <v>710</v>
+      </c>
+      <c r="F156">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>163</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>586</v>
+      </c>
+      <c r="E157">
+        <v>710</v>
+      </c>
+      <c r="F157">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>164</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>586</v>
+      </c>
+      <c r="E158">
+        <v>710</v>
+      </c>
+      <c r="F158">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>88</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>586</v>
+      </c>
+      <c r="E159">
+        <v>710</v>
+      </c>
+      <c r="F159">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160">
+        <v>586</v>
+      </c>
+      <c r="E160">
+        <v>710</v>
+      </c>
+      <c r="F160">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>166</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>586</v>
+      </c>
+      <c r="E161">
+        <v>710</v>
+      </c>
+      <c r="F161">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>586</v>
+      </c>
+      <c r="E162">
+        <v>710</v>
+      </c>
+      <c r="F162">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>168</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>586</v>
+      </c>
+      <c r="E163">
+        <v>710</v>
+      </c>
+      <c r="F163">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>169</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>586</v>
+      </c>
+      <c r="E164">
+        <v>710</v>
+      </c>
+      <c r="F164">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>170</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>586</v>
+      </c>
+      <c r="E165">
+        <v>710</v>
+      </c>
+      <c r="F165">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>171</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166">
+        <v>586</v>
+      </c>
+      <c r="E166">
+        <v>710</v>
+      </c>
+      <c r="F166">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>172</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>586</v>
+      </c>
+      <c r="E167">
+        <v>710</v>
+      </c>
+      <c r="F167">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>173</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168">
+        <v>586</v>
+      </c>
+      <c r="E168">
+        <v>710</v>
+      </c>
+      <c r="F168">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>174</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>586</v>
+      </c>
+      <c r="E169">
+        <v>710</v>
+      </c>
+      <c r="F169">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>175</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>586</v>
+      </c>
+      <c r="E170">
+        <v>710</v>
+      </c>
+      <c r="F170">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>176</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>586</v>
+      </c>
+      <c r="E171">
+        <v>710</v>
+      </c>
+      <c r="F171">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>177</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>586</v>
+      </c>
+      <c r="E172">
+        <v>710</v>
+      </c>
+      <c r="F172">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>178</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>586</v>
+      </c>
+      <c r="E173">
+        <v>710</v>
+      </c>
+      <c r="F173">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>179</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174">
+        <v>586</v>
+      </c>
+      <c r="E174">
+        <v>710</v>
+      </c>
+      <c r="F174">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>586</v>
+      </c>
+      <c r="E175">
+        <v>710</v>
+      </c>
+      <c r="F175">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>181</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>586</v>
+      </c>
+      <c r="E176">
+        <v>710</v>
+      </c>
+      <c r="F176">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>182</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>586</v>
+      </c>
+      <c r="E177">
+        <v>710</v>
+      </c>
+      <c r="F177">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>183</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>586</v>
+      </c>
+      <c r="E178">
+        <v>710</v>
+      </c>
+      <c r="F178">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>184</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>586</v>
+      </c>
+      <c r="E179">
+        <v>710</v>
+      </c>
+      <c r="F179">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>185</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180">
+        <v>586</v>
+      </c>
+      <c r="E180">
+        <v>710</v>
+      </c>
+      <c r="F180">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>186</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>586</v>
+      </c>
+      <c r="E181">
+        <v>710</v>
+      </c>
+      <c r="F181">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>187</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182">
+        <v>586</v>
+      </c>
+      <c r="E182">
+        <v>710</v>
+      </c>
+      <c r="F182">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>188</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>586</v>
+      </c>
+      <c r="E183">
+        <v>710</v>
+      </c>
+      <c r="F183">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>189</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184">
+        <v>586</v>
+      </c>
+      <c r="E184">
+        <v>710</v>
+      </c>
+      <c r="F184">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>190</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>586</v>
+      </c>
+      <c r="E185">
+        <v>710</v>
+      </c>
+      <c r="F185">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>191</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>586</v>
+      </c>
+      <c r="E186">
+        <v>710</v>
+      </c>
+      <c r="F186">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>192</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>586</v>
+      </c>
+      <c r="E187">
+        <v>710</v>
+      </c>
+      <c r="F187">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>193</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188">
+        <v>586</v>
+      </c>
+      <c r="E188">
+        <v>710</v>
+      </c>
+      <c r="F188">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>194</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <v>586</v>
+      </c>
+      <c r="E189">
+        <v>710</v>
+      </c>
+      <c r="F189">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>195</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190">
+        <v>586</v>
+      </c>
+      <c r="E190">
+        <v>710</v>
+      </c>
+      <c r="F190">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>196</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <v>586</v>
+      </c>
+      <c r="E191">
+        <v>710</v>
+      </c>
+      <c r="F191">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>197</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>586</v>
+      </c>
+      <c r="E192">
+        <v>710</v>
+      </c>
+      <c r="F192">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>198</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>586</v>
+      </c>
+      <c r="E193">
+        <v>710</v>
+      </c>
+      <c r="F193">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>199</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <v>586</v>
+      </c>
+      <c r="E194">
+        <v>710</v>
+      </c>
+      <c r="F194">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>200</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>586</v>
+      </c>
+      <c r="E195">
+        <v>710</v>
+      </c>
+      <c r="F195">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>201</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>586</v>
+      </c>
+      <c r="E196">
+        <v>710</v>
+      </c>
+      <c r="F196">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>202</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>586</v>
+      </c>
+      <c r="E197">
+        <v>710</v>
+      </c>
+      <c r="F197">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>203</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>586</v>
+      </c>
+      <c r="E198">
+        <v>710</v>
+      </c>
+      <c r="F198">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>204</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>586</v>
+      </c>
+      <c r="E199">
+        <v>710</v>
+      </c>
+      <c r="F199">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>205</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200">
+        <v>586</v>
+      </c>
+      <c r="E200">
+        <v>710</v>
+      </c>
+      <c r="F200">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>206</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201">
+        <v>586</v>
+      </c>
+      <c r="E201">
+        <v>710</v>
+      </c>
+      <c r="F201">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>207</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202">
+        <v>586</v>
+      </c>
+      <c r="E202">
+        <v>710</v>
+      </c>
+      <c r="F202">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>208</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203">
+        <v>586</v>
+      </c>
+      <c r="E203">
+        <v>710</v>
+      </c>
+      <c r="F203">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>209</v>
+      </c>
+      <c r="C204" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>586</v>
+      </c>
+      <c r="E204">
+        <v>710</v>
+      </c>
+      <c r="F204">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>136</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205">
+        <v>586</v>
+      </c>
+      <c r="E205">
+        <v>710</v>
+      </c>
+      <c r="F205">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>210</v>
+      </c>
+      <c r="C206" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206">
+        <v>586</v>
+      </c>
+      <c r="E206">
+        <v>710</v>
+      </c>
+      <c r="F206">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>211</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>586</v>
+      </c>
+      <c r="E207">
+        <v>710</v>
+      </c>
+      <c r="F207">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>212</v>
+      </c>
+      <c r="C208" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>586</v>
+      </c>
+      <c r="E208">
+        <v>710</v>
+      </c>
+      <c r="F208">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>213</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209">
+        <v>586</v>
+      </c>
+      <c r="E209">
+        <v>710</v>
+      </c>
+      <c r="F209">
+        <v>1263.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>214</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210">
+        <v>670</v>
+      </c>
+      <c r="E210">
+        <v>810</v>
+      </c>
+      <c r="F210">
+        <v>1441.8000000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>215</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>670</v>
+      </c>
+      <c r="E211">
+        <v>810</v>
+      </c>
+      <c r="F211">
+        <v>1441.8000000000002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>216</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212">
+        <v>670</v>
+      </c>
+      <c r="E212">
+        <v>810</v>
+      </c>
+      <c r="F212">
+        <v>1441.8000000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>217</v>
+      </c>
+      <c r="C213" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>670</v>
+      </c>
+      <c r="E213">
+        <v>810</v>
+      </c>
+      <c r="F213">
+        <v>1441.8000000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>218</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>670</v>
+      </c>
+      <c r="E214">
+        <v>810</v>
+      </c>
+      <c r="F214">
+        <v>1441.8000000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>219</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>670</v>
+      </c>
+      <c r="E215">
+        <v>810</v>
+      </c>
+      <c r="F215">
+        <v>1441.8000000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>220</v>
+      </c>
+      <c r="C216" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>670</v>
+      </c>
+      <c r="E216">
+        <v>810</v>
+      </c>
+      <c r="F216">
+        <v>1441.8000000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>221</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>670</v>
+      </c>
+      <c r="E217">
+        <v>810</v>
+      </c>
+      <c r="F217">
+        <v>1441.8000000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>222</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218">
+        <v>670</v>
+      </c>
+      <c r="E218">
+        <v>810</v>
+      </c>
+      <c r="F218">
+        <v>1441.8000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>223</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <v>670</v>
+      </c>
+      <c r="E219">
+        <v>810</v>
+      </c>
+      <c r="F219">
+        <v>1441.8000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>224</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220">
+        <v>670</v>
+      </c>
+      <c r="E220">
+        <v>810</v>
+      </c>
+      <c r="F220">
+        <v>1441.8000000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>225</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>670</v>
+      </c>
+      <c r="E221">
+        <v>810</v>
+      </c>
+      <c r="F221">
+        <v>1441.8000000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>151</v>
+      </c>
+      <c r="C222" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222">
+        <v>670</v>
+      </c>
+      <c r="E222">
+        <v>810</v>
+      </c>
+      <c r="F222">
+        <v>1441.8000000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C223" t="s">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>670</v>
+      </c>
+      <c r="E223">
+        <v>810</v>
+      </c>
+      <c r="F223">
+        <v>1441.8000000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>227</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224">
+        <v>734</v>
+      </c>
+      <c r="E224">
+        <v>890</v>
+      </c>
+      <c r="F224">
+        <v>1584.2000000000003</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>734</v>
+      </c>
+      <c r="E225">
+        <v>890</v>
+      </c>
+      <c r="F225">
+        <v>1584.2000000000003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>229</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226">
+        <v>734</v>
+      </c>
+      <c r="E226">
+        <v>890</v>
+      </c>
+      <c r="F226">
+        <v>1584.2000000000003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>230</v>
+      </c>
+      <c r="C227" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227">
+        <v>734</v>
+      </c>
+      <c r="E227">
+        <v>890</v>
+      </c>
+      <c r="F227">
+        <v>1584.2000000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>231</v>
+      </c>
+      <c r="C228" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228">
+        <v>734</v>
+      </c>
+      <c r="E228">
+        <v>890</v>
+      </c>
+      <c r="F228">
+        <v>1584.2000000000003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>232</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229">
+        <v>734</v>
+      </c>
+      <c r="E229">
+        <v>890</v>
+      </c>
+      <c r="F229">
+        <v>1584.2000000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>233</v>
+      </c>
+      <c r="C230" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230">
+        <v>640</v>
+      </c>
+      <c r="E230">
+        <v>770</v>
+      </c>
+      <c r="F230">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>234</v>
+      </c>
+      <c r="C231" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>640</v>
+      </c>
+      <c r="E231">
+        <v>770</v>
+      </c>
+      <c r="F231">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>235</v>
+      </c>
+      <c r="C232" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>640</v>
+      </c>
+      <c r="E232">
+        <v>770</v>
+      </c>
+      <c r="F232">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>236</v>
+      </c>
+      <c r="C233" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>640</v>
+      </c>
+      <c r="E233">
+        <v>770</v>
+      </c>
+      <c r="F233">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234" t="s">
+        <v>237</v>
+      </c>
+      <c r="C234" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234">
+        <v>640</v>
+      </c>
+      <c r="E234">
+        <v>770</v>
+      </c>
+      <c r="F234">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>238</v>
+      </c>
+      <c r="C235" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235">
+        <v>640</v>
+      </c>
+      <c r="E235">
+        <v>770</v>
+      </c>
+      <c r="F235">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>239</v>
+      </c>
+      <c r="C236" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>640</v>
+      </c>
+      <c r="E236">
+        <v>770</v>
+      </c>
+      <c r="F236">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>0</v>
+      </c>
+      <c r="B237" t="s">
+        <v>240</v>
+      </c>
+      <c r="C237" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237">
+        <v>640</v>
+      </c>
+      <c r="E237">
+        <v>770</v>
+      </c>
+      <c r="F237">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>241</v>
+      </c>
+      <c r="C238" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238">
+        <v>640</v>
+      </c>
+      <c r="E238">
+        <v>770</v>
+      </c>
+      <c r="F238">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>0</v>
+      </c>
+      <c r="B239" t="s">
+        <v>242</v>
+      </c>
+      <c r="C239" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239">
+        <v>640</v>
+      </c>
+      <c r="E239">
+        <v>770</v>
+      </c>
+      <c r="F239">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240" t="s">
+        <v>243</v>
+      </c>
+      <c r="C240" t="s">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>640</v>
+      </c>
+      <c r="E240">
+        <v>770</v>
+      </c>
+      <c r="F240">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241" t="s">
+        <v>244</v>
+      </c>
+      <c r="C241" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>640</v>
+      </c>
+      <c r="E241">
+        <v>770</v>
+      </c>
+      <c r="F241">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" t="s">
+        <v>245</v>
+      </c>
+      <c r="C242" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242">
+        <v>640</v>
+      </c>
+      <c r="E242">
+        <v>770</v>
+      </c>
+      <c r="F242">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>0</v>
+      </c>
+      <c r="B243" t="s">
+        <v>246</v>
+      </c>
+      <c r="C243" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243">
+        <v>640</v>
+      </c>
+      <c r="E243">
+        <v>770</v>
+      </c>
+      <c r="F243">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>0</v>
+      </c>
+      <c r="B244" t="s">
+        <v>247</v>
+      </c>
+      <c r="C244" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244">
+        <v>640</v>
+      </c>
+      <c r="E244">
+        <v>770</v>
+      </c>
+      <c r="F244">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245" t="s">
+        <v>248</v>
+      </c>
+      <c r="C245" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245">
+        <v>640</v>
+      </c>
+      <c r="E245">
+        <v>770</v>
+      </c>
+      <c r="F245">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>249</v>
+      </c>
+      <c r="C246" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246">
+        <v>640</v>
+      </c>
+      <c r="E246">
+        <v>770</v>
+      </c>
+      <c r="F246">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>0</v>
+      </c>
+      <c r="B247" t="s">
+        <v>250</v>
+      </c>
+      <c r="C247" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>640</v>
+      </c>
+      <c r="E247">
+        <v>770</v>
+      </c>
+      <c r="F247">
+        <v>1370.6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>251</v>
+      </c>
+      <c r="C248" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248">
+        <v>731</v>
+      </c>
+      <c r="E248">
+        <v>880</v>
+      </c>
+      <c r="F248">
+        <v>1566.4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" t="s">
+        <v>252</v>
+      </c>
+      <c r="C249" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249">
+        <v>791</v>
+      </c>
+      <c r="E249">
+        <v>950</v>
+      </c>
+      <c r="F249">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250" t="s">
+        <v>253</v>
+      </c>
+      <c r="C250" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250">
+        <v>791</v>
+      </c>
+      <c r="E250">
+        <v>950</v>
+      </c>
+      <c r="F250">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B251" t="s">
+        <v>254</v>
+      </c>
+      <c r="C251" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251">
+        <v>564</v>
+      </c>
+      <c r="E251">
+        <v>680</v>
+      </c>
+      <c r="F251">
+        <v>1210.4000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>0</v>
+      </c>
+      <c r="B252" t="s">
+        <v>255</v>
+      </c>
+      <c r="C252" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252">
+        <v>564</v>
+      </c>
+      <c r="E252">
+        <v>680</v>
+      </c>
+      <c r="F252">
+        <v>1210.4000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253" t="s">
+        <v>256</v>
+      </c>
+      <c r="C253" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>564</v>
+      </c>
+      <c r="E253">
+        <v>680</v>
+      </c>
+      <c r="F253">
+        <v>1210.4000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254" t="s">
+        <v>257</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254">
+        <v>564</v>
+      </c>
+      <c r="E254">
+        <v>680</v>
+      </c>
+      <c r="F254">
+        <v>1210.4000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B255" t="s">
+        <v>258</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255">
+        <v>564</v>
+      </c>
+      <c r="E255">
+        <v>680</v>
+      </c>
+      <c r="F255">
+        <v>1210.4000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>0</v>
+      </c>
+      <c r="B256" t="s">
+        <v>259</v>
+      </c>
+      <c r="C256" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>564</v>
+      </c>
+      <c r="E256">
+        <v>680</v>
+      </c>
+      <c r="F256">
+        <v>1210.4000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>260</v>
+      </c>
+      <c r="C257" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257">
+        <v>564</v>
+      </c>
+      <c r="E257">
+        <v>680</v>
+      </c>
+      <c r="F257">
+        <v>1210.4000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258" t="s">
+        <v>261</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258">
+        <v>564</v>
+      </c>
+      <c r="E258">
+        <v>680</v>
+      </c>
+      <c r="F258">
+        <v>1210.4000000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>0</v>
+      </c>
+      <c r="B259" t="s">
+        <v>262</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259">
+        <v>564</v>
+      </c>
+      <c r="E259">
+        <v>680</v>
+      </c>
+      <c r="F259">
+        <v>1210.4000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>0</v>
+      </c>
+      <c r="B260" t="s">
+        <v>263</v>
+      </c>
+      <c r="C260" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260">
+        <v>612</v>
+      </c>
+      <c r="E260">
+        <v>740</v>
+      </c>
+      <c r="F260">
+        <v>1317.2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>0</v>
+      </c>
+      <c r="B261" t="s">
+        <v>264</v>
+      </c>
+      <c r="C261" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261">
+        <v>612</v>
+      </c>
+      <c r="E261">
+        <v>740</v>
+      </c>
+      <c r="F261">
+        <v>1317.2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>0</v>
+      </c>
+      <c r="B262" t="s">
+        <v>265</v>
+      </c>
+      <c r="C262" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262">
+        <v>818</v>
+      </c>
+      <c r="E262">
+        <v>990</v>
+      </c>
+      <c r="F262">
+        <v>1762.2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>0</v>
+      </c>
+      <c r="B263" t="s">
+        <v>266</v>
+      </c>
+      <c r="C263" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263">
+        <v>633</v>
+      </c>
+      <c r="E263">
+        <v>760</v>
+      </c>
+      <c r="F263">
+        <v>1352.8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>0</v>
+      </c>
+      <c r="B264" t="s">
+        <v>267</v>
+      </c>
+      <c r="C264" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264">
+        <v>633</v>
+      </c>
+      <c r="E264">
+        <v>760</v>
+      </c>
+      <c r="F264">
+        <v>1352.8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" t="s">
+        <v>268</v>
+      </c>
+      <c r="C265" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265">
+        <v>633</v>
+      </c>
+      <c r="E265">
+        <v>760</v>
+      </c>
+      <c r="F265">
+        <v>1352.8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>0</v>
+      </c>
+      <c r="B266" t="s">
+        <v>269</v>
+      </c>
+      <c r="C266" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266">
+        <v>633</v>
+      </c>
+      <c r="E266">
+        <v>760</v>
+      </c>
+      <c r="F266">
+        <v>1352.8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>0</v>
+      </c>
+      <c r="B267" t="s">
+        <v>270</v>
+      </c>
+      <c r="C267" t="s">
+        <v>2</v>
+      </c>
+      <c r="D267">
+        <v>633</v>
+      </c>
+      <c r="E267">
+        <v>760</v>
+      </c>
+      <c r="F267">
+        <v>1352.8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>0</v>
+      </c>
+      <c r="B268" t="s">
+        <v>271</v>
+      </c>
+      <c r="C268" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268">
+        <v>633</v>
+      </c>
+      <c r="E268">
+        <v>760</v>
+      </c>
+      <c r="F268">
+        <v>1352.8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>0</v>
+      </c>
+      <c r="B269" t="s">
+        <v>272</v>
+      </c>
+      <c r="C269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269">
+        <v>633</v>
+      </c>
+      <c r="E269">
+        <v>760</v>
+      </c>
+      <c r="F269">
+        <v>1352.8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>0</v>
+      </c>
+      <c r="B270" t="s">
+        <v>273</v>
+      </c>
+      <c r="C270" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270">
+        <v>633</v>
+      </c>
+      <c r="E270">
+        <v>760</v>
+      </c>
+      <c r="F270">
+        <v>1352.8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>0</v>
+      </c>
+      <c r="B271" t="s">
+        <v>274</v>
+      </c>
+      <c r="C271" t="s">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>633</v>
+      </c>
+      <c r="E271">
+        <v>760</v>
+      </c>
+      <c r="F271">
+        <v>1352.8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>0</v>
+      </c>
+      <c r="B272" t="s">
+        <v>275</v>
+      </c>
+      <c r="C272" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272">
+        <v>633</v>
+      </c>
+      <c r="E272">
+        <v>760</v>
+      </c>
+      <c r="F272">
+        <v>1352.8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B273" t="s">
+        <v>276</v>
+      </c>
+      <c r="C273" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273">
+        <v>727</v>
+      </c>
+      <c r="E273">
+        <v>880</v>
+      </c>
+      <c r="F273">
+        <v>1566.4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>0</v>
+      </c>
+      <c r="B274" t="s">
+        <v>277</v>
+      </c>
+      <c r="C274" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274">
+        <v>727</v>
+      </c>
+      <c r="E274">
+        <v>880</v>
+      </c>
+      <c r="F274">
+        <v>1566.4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>0</v>
+      </c>
+      <c r="B275" t="s">
+        <v>278</v>
+      </c>
+      <c r="C275" t="s">
+        <v>2</v>
+      </c>
+      <c r="D275">
+        <v>832</v>
+      </c>
+      <c r="E275">
+        <v>1000</v>
+      </c>
+      <c r="F275">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>0</v>
+      </c>
+      <c r="B276" t="s">
+        <v>279</v>
+      </c>
+      <c r="C276" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276">
+        <v>758</v>
+      </c>
+      <c r="E276">
+        <v>910</v>
+      </c>
+      <c r="F276">
+        <v>1619.8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>0</v>
+      </c>
+      <c r="B277" t="s">
+        <v>280</v>
+      </c>
+      <c r="C277" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277">
+        <v>758</v>
+      </c>
+      <c r="E277">
+        <v>910</v>
+      </c>
+      <c r="F277">
+        <v>1619.8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278" t="s">
+        <v>282</v>
+      </c>
+      <c r="C278" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278">
+        <v>722</v>
+      </c>
+      <c r="E278">
+        <v>870</v>
+      </c>
+      <c r="F278">
+        <v>1548.6000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>0</v>
+      </c>
+      <c r="B279" t="s">
+        <v>283</v>
+      </c>
+      <c r="C279" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279">
+        <v>722</v>
+      </c>
+      <c r="E279">
+        <v>870</v>
+      </c>
+      <c r="F279">
+        <v>1548.6000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>0</v>
+      </c>
+      <c r="B280" t="s">
+        <v>284</v>
+      </c>
+      <c r="C280" t="s">
+        <v>2</v>
+      </c>
+      <c r="D280">
+        <v>722</v>
+      </c>
+      <c r="E280">
+        <v>870</v>
+      </c>
+      <c r="F280">
+        <v>1548.6000000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" t="s">
+        <v>285</v>
+      </c>
+      <c r="C281" t="s">
+        <v>2</v>
+      </c>
+      <c r="D281">
+        <v>722</v>
+      </c>
+      <c r="E281">
+        <v>870</v>
+      </c>
+      <c r="F281">
+        <v>1548.6000000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>0</v>
+      </c>
+      <c r="B282" t="s">
+        <v>287</v>
+      </c>
+      <c r="C282" t="s">
+        <v>2</v>
+      </c>
+      <c r="D282">
+        <v>722</v>
+      </c>
+      <c r="E282">
+        <v>870</v>
+      </c>
+      <c r="F282">
+        <v>1548.6000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>0</v>
+      </c>
+      <c r="B283" t="s">
+        <v>288</v>
+      </c>
+      <c r="C283" t="s">
+        <v>2</v>
+      </c>
+      <c r="D283">
+        <v>722</v>
+      </c>
+      <c r="E283">
+        <v>870</v>
+      </c>
+      <c r="F283">
+        <v>1548.6000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>0</v>
+      </c>
+      <c r="B284" t="s">
+        <v>289</v>
+      </c>
+      <c r="C284" t="s">
+        <v>2</v>
+      </c>
+      <c r="D284">
+        <v>722</v>
+      </c>
+      <c r="E284">
+        <v>870</v>
+      </c>
+      <c r="F284">
+        <v>1548.6000000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>0</v>
+      </c>
+      <c r="B285" t="s">
+        <v>290</v>
+      </c>
+      <c r="C285" t="s">
+        <v>2</v>
+      </c>
+      <c r="D285">
+        <v>722</v>
+      </c>
+      <c r="E285">
+        <v>870</v>
+      </c>
+      <c r="F285">
+        <v>1548.6000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>0</v>
+      </c>
+      <c r="B286" t="s">
+        <v>291</v>
+      </c>
+      <c r="C286" t="s">
+        <v>2</v>
+      </c>
+      <c r="D286">
+        <v>722</v>
+      </c>
+      <c r="E286">
+        <v>870</v>
+      </c>
+      <c r="F286">
+        <v>1548.6000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>0</v>
+      </c>
+      <c r="B287" t="s">
+        <v>292</v>
+      </c>
+      <c r="C287" t="s">
+        <v>2</v>
+      </c>
+      <c r="D287">
+        <v>722</v>
+      </c>
+      <c r="E287">
+        <v>870</v>
+      </c>
+      <c r="F287">
+        <v>1548.6000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>0</v>
+      </c>
+      <c r="B288" t="s">
+        <v>293</v>
+      </c>
+      <c r="C288" t="s">
+        <v>2</v>
+      </c>
+      <c r="D288">
+        <v>722</v>
+      </c>
+      <c r="E288">
+        <v>870</v>
+      </c>
+      <c r="F288">
+        <v>1548.6000000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>0</v>
+      </c>
+      <c r="B289" t="s">
+        <v>294</v>
+      </c>
+      <c r="C289" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <v>722</v>
+      </c>
+      <c r="E289">
+        <v>870</v>
+      </c>
+      <c r="F289">
+        <v>1548.6000000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>0</v>
+      </c>
+      <c r="B290" t="s">
+        <v>295</v>
+      </c>
+      <c r="C290" t="s">
+        <v>2</v>
+      </c>
+      <c r="D290">
+        <v>722</v>
+      </c>
+      <c r="E290">
+        <v>870</v>
+      </c>
+      <c r="F290">
+        <v>1548.6000000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>0</v>
+      </c>
+      <c r="B291" t="s">
+        <v>296</v>
+      </c>
+      <c r="C291" t="s">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>790</v>
+      </c>
+      <c r="E291">
+        <v>950</v>
+      </c>
+      <c r="F291">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>0</v>
+      </c>
+      <c r="B292" t="s">
+        <v>297</v>
+      </c>
+      <c r="C292" t="s">
+        <v>2</v>
+      </c>
+      <c r="D292">
+        <v>790</v>
+      </c>
+      <c r="E292">
+        <v>950</v>
+      </c>
+      <c r="F292">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>0</v>
+      </c>
+      <c r="B293" t="s">
+        <v>298</v>
+      </c>
+      <c r="C293" t="s">
+        <v>2</v>
+      </c>
+      <c r="D293">
+        <v>790</v>
+      </c>
+      <c r="E293">
+        <v>950</v>
+      </c>
+      <c r="F293">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>0</v>
+      </c>
+      <c r="B294" t="s">
+        <v>299</v>
+      </c>
+      <c r="C294" t="s">
+        <v>2</v>
+      </c>
+      <c r="D294">
+        <v>859</v>
+      </c>
+      <c r="E294">
+        <v>1040</v>
+      </c>
+      <c r="F294">
+        <v>1851.2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>0</v>
+      </c>
+      <c r="B295" t="s">
+        <v>281</v>
+      </c>
+      <c r="C295" t="s">
+        <v>2</v>
+      </c>
+      <c r="D295">
+        <v>793</v>
+      </c>
+      <c r="E295">
+        <v>960</v>
+      </c>
+      <c r="F295">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>0</v>
+      </c>
+      <c r="B296" t="s">
+        <v>300</v>
+      </c>
+      <c r="C296" t="s">
+        <v>2</v>
+      </c>
+      <c r="D296">
+        <v>793</v>
+      </c>
+      <c r="E296">
+        <v>960</v>
+      </c>
+      <c r="F296">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>0</v>
+      </c>
+      <c r="B297" t="s">
+        <v>301</v>
+      </c>
+      <c r="C297" t="s">
+        <v>2</v>
+      </c>
+      <c r="D297">
+        <v>793</v>
+      </c>
+      <c r="E297">
+        <v>960</v>
+      </c>
+      <c r="F297">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>0</v>
+      </c>
+      <c r="B298" t="s">
+        <v>286</v>
+      </c>
+      <c r="C298" t="s">
+        <v>2</v>
+      </c>
+      <c r="D298">
+        <v>793</v>
+      </c>
+      <c r="E298">
+        <v>960</v>
+      </c>
+      <c r="F298">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>0</v>
+      </c>
+      <c r="B299" t="s">
+        <v>302</v>
+      </c>
+      <c r="C299" t="s">
+        <v>2</v>
+      </c>
+      <c r="D299">
+        <v>793</v>
+      </c>
+      <c r="E299">
+        <v>960</v>
+      </c>
+      <c r="F299">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>0</v>
+      </c>
+      <c r="B300" t="s">
+        <v>303</v>
+      </c>
+      <c r="C300" t="s">
+        <v>2</v>
+      </c>
+      <c r="D300">
+        <v>793</v>
+      </c>
+      <c r="E300">
+        <v>960</v>
+      </c>
+      <c r="F300">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>0</v>
+      </c>
+      <c r="B301" t="s">
+        <v>304</v>
+      </c>
+      <c r="C301" t="s">
+        <v>2</v>
+      </c>
+      <c r="D301">
+        <v>793</v>
+      </c>
+      <c r="E301">
+        <v>960</v>
+      </c>
+      <c r="F301">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>0</v>
+      </c>
+      <c r="B302" t="s">
+        <v>305</v>
+      </c>
+      <c r="C302" t="s">
+        <v>2</v>
+      </c>
+      <c r="D302">
+        <v>793</v>
+      </c>
+      <c r="E302">
+        <v>960</v>
+      </c>
+      <c r="F302">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>0</v>
+      </c>
+      <c r="B303" t="s">
+        <v>306</v>
+      </c>
+      <c r="C303" t="s">
+        <v>2</v>
+      </c>
+      <c r="D303">
+        <v>793</v>
+      </c>
+      <c r="E303">
+        <v>960</v>
+      </c>
+      <c r="F303">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>0</v>
+      </c>
+      <c r="B304" t="s">
+        <v>307</v>
+      </c>
+      <c r="C304" t="s">
+        <v>2</v>
+      </c>
+      <c r="D304">
+        <v>793</v>
+      </c>
+      <c r="E304">
+        <v>960</v>
+      </c>
+      <c r="F304">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>0</v>
+      </c>
+      <c r="B305" t="s">
+        <v>308</v>
+      </c>
+      <c r="C305" t="s">
+        <v>2</v>
+      </c>
+      <c r="D305">
+        <v>793</v>
+      </c>
+      <c r="E305">
+        <v>960</v>
+      </c>
+      <c r="F305">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>0</v>
+      </c>
+      <c r="B306" t="s">
+        <v>309</v>
+      </c>
+      <c r="C306" t="s">
+        <v>2</v>
+      </c>
+      <c r="D306">
+        <v>793</v>
+      </c>
+      <c r="E306">
+        <v>960</v>
+      </c>
+      <c r="F306">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>0</v>
+      </c>
+      <c r="B307" t="s">
+        <v>310</v>
+      </c>
+      <c r="C307" t="s">
+        <v>2</v>
+      </c>
+      <c r="D307">
+        <v>793</v>
+      </c>
+      <c r="E307">
+        <v>960</v>
+      </c>
+      <c r="F307">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>0</v>
+      </c>
+      <c r="B308" t="s">
+        <v>311</v>
+      </c>
+      <c r="C308" t="s">
+        <v>2</v>
+      </c>
+      <c r="D308">
+        <v>793</v>
+      </c>
+      <c r="E308">
+        <v>960</v>
+      </c>
+      <c r="F308">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>0</v>
+      </c>
+      <c r="B309" t="s">
+        <v>312</v>
+      </c>
+      <c r="C309" t="s">
+        <v>2</v>
+      </c>
+      <c r="D309">
+        <v>793</v>
+      </c>
+      <c r="E309">
+        <v>960</v>
+      </c>
+      <c r="F309">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>0</v>
+      </c>
+      <c r="B310" t="s">
+        <v>313</v>
+      </c>
+      <c r="C310" t="s">
+        <v>2</v>
+      </c>
+      <c r="D310">
+        <v>793</v>
+      </c>
+      <c r="E310">
+        <v>960</v>
+      </c>
+      <c r="F310">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>0</v>
+      </c>
+      <c r="B311" t="s">
+        <v>314</v>
+      </c>
+      <c r="C311" t="s">
+        <v>2</v>
+      </c>
+      <c r="D311">
+        <v>793</v>
+      </c>
+      <c r="E311">
+        <v>960</v>
+      </c>
+      <c r="F311">
+        <v>1708.8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>0</v>
+      </c>
+      <c r="B312" t="s">
+        <v>315</v>
+      </c>
+      <c r="C312" t="s">
+        <v>2</v>
+      </c>
+      <c r="D312">
+        <v>862</v>
+      </c>
+      <c r="E312">
+        <v>1040</v>
+      </c>
+      <c r="F312">
+        <v>1851.2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>0</v>
+      </c>
+      <c r="B313" t="s">
+        <v>316</v>
+      </c>
+      <c r="C313" t="s">
+        <v>2</v>
+      </c>
+      <c r="D313">
+        <v>862</v>
+      </c>
+      <c r="E313">
+        <v>1040</v>
+      </c>
+      <c r="F313">
+        <v>1851.2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>0</v>
+      </c>
+      <c r="B314" t="s">
+        <v>317</v>
+      </c>
+      <c r="C314" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314">
+        <v>862</v>
+      </c>
+      <c r="E314">
+        <v>1040</v>
+      </c>
+      <c r="F314">
+        <v>1851.2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>0</v>
+      </c>
+      <c r="B315" t="s">
+        <v>318</v>
+      </c>
+      <c r="C315" t="s">
+        <v>2</v>
+      </c>
+      <c r="D315">
+        <v>862</v>
+      </c>
+      <c r="E315">
+        <v>1040</v>
+      </c>
+      <c r="F315">
+        <v>1851.2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>0</v>
+      </c>
+      <c r="B316" t="s">
+        <v>319</v>
+      </c>
+      <c r="C316" t="s">
+        <v>2</v>
+      </c>
+      <c r="D316">
+        <v>862</v>
+      </c>
+      <c r="E316">
+        <v>1040</v>
+      </c>
+      <c r="F316">
+        <v>1851.2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>0</v>
+      </c>
+      <c r="B317" t="s">
+        <v>320</v>
+      </c>
+      <c r="C317" t="s">
+        <v>2</v>
+      </c>
+      <c r="D317">
+        <v>862</v>
+      </c>
+      <c r="E317">
+        <v>1040</v>
+      </c>
+      <c r="F317">
+        <v>1851.2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>0</v>
+      </c>
+      <c r="B318" t="s">
+        <v>321</v>
+      </c>
+      <c r="C318" t="s">
+        <v>2</v>
+      </c>
+      <c r="D318">
+        <v>929</v>
+      </c>
+      <c r="E318">
+        <v>1120</v>
+      </c>
+      <c r="F318">
+        <v>1993.6000000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>0</v>
+      </c>
+      <c r="B319" t="s">
+        <v>322</v>
+      </c>
+      <c r="C319" t="s">
+        <v>2</v>
+      </c>
+      <c r="D319">
+        <v>929</v>
+      </c>
+      <c r="E319">
+        <v>1120</v>
+      </c>
+      <c r="F319">
+        <v>1993.6000000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>0</v>
+      </c>
+      <c r="B320" t="s">
+        <v>323</v>
+      </c>
+      <c r="C320" t="s">
+        <v>2</v>
+      </c>
+      <c r="D320">
+        <v>929</v>
+      </c>
+      <c r="E320">
+        <v>1120</v>
+      </c>
+      <c r="F320">
+        <v>1993.6000000000001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>0</v>
+      </c>
+      <c r="B321" t="s">
+        <v>324</v>
+      </c>
+      <c r="C321" t="s">
+        <v>2</v>
+      </c>
+      <c r="D321">
+        <v>929</v>
+      </c>
+      <c r="E321">
+        <v>1120</v>
+      </c>
+      <c r="F321">
+        <v>1993.6000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>0</v>
+      </c>
+      <c r="B322" t="s">
+        <v>325</v>
+      </c>
+      <c r="C322" t="s">
+        <v>2</v>
+      </c>
+      <c r="D322">
+        <v>819</v>
+      </c>
+      <c r="E322">
+        <v>990</v>
+      </c>
+      <c r="F322">
+        <v>1762.2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>0</v>
+      </c>
+      <c r="B323" t="s">
+        <v>326</v>
+      </c>
+      <c r="C323" t="s">
+        <v>2</v>
+      </c>
+      <c r="D323">
+        <v>819</v>
+      </c>
+      <c r="E323">
+        <v>990</v>
+      </c>
+      <c r="F323">
+        <v>1762.2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>0</v>
+      </c>
+      <c r="B324" t="s">
+        <v>327</v>
+      </c>
+      <c r="C324" t="s">
+        <v>2</v>
+      </c>
+      <c r="D324">
+        <v>819</v>
+      </c>
+      <c r="E324">
+        <v>990</v>
+      </c>
+      <c r="F324">
+        <v>1762.2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>0</v>
+      </c>
+      <c r="B325" t="s">
+        <v>328</v>
+      </c>
+      <c r="C325" t="s">
+        <v>2</v>
+      </c>
+      <c r="D325">
+        <v>819</v>
+      </c>
+      <c r="E325">
+        <v>990</v>
+      </c>
+      <c r="F325">
+        <v>1762.2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="327" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="328" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
         <v>62</v>
       </c>
-      <c r="C65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65">
-        <v>591</v>
-      </c>
-      <c r="E65">
-        <v>710</v>
-      </c>
-      <c r="F65">
-        <v>1263.8</v>
+    </row>
+    <row r="392" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B401" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B403" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B404" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B408" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B409" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B412" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B415" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B418" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B419" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B421" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B422" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B431" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B433" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B434" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B436" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B438" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B439" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B440" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B441" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B442" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B443" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B444" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B445" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B446" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B447" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B448" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B449" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B450" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B451" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B452" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B453" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B454" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B455" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B456" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B457" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B458" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B459" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B460" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B461" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B462" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B463" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B464" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B465" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B466" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B467" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B468" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B469" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B470" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B471" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B472" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B473" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B474" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B475" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B476" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B477" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B478" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B479" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B480" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B481" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B482" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B483" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B484" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B485" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B486" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B487" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B488" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B489" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B490" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B491" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B492" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B493" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B494" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B495" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B496" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B497" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B498" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B499" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B500" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B501" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B502" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B503" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B504" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B505" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B506" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B507" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B508" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B509" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B510" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B511" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B512" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B513" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B514" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B515" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B516" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B517" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B518" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B519" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B520" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B521" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B522" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B523" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B524" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B525" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B526" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B527" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B528" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B529" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B530" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B531" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B532" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B533" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B534" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B535" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B536" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B537" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B538" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B539" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B540" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B541" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B542" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B543" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B544" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B545" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B546" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B547" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B548" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="549" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B549" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B550" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B551" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="552" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B552" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B553" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B554" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B555" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B556" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="557" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B557" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="558" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B558" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="559" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B559" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="560" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B560" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B561" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B562" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B563" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="564" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B564" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B565" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B566" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B567" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="568" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B568" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="569" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B569" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="570" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B570" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="571" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B571" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="572" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B572" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B573" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="574" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B574" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B575" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B576" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B577" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="578" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B578" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B579" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="580" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B580" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="581" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B581" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="582" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B582" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B583" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="584" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B584" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B585" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="586" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B586" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="587" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B587" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="588" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B588" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="589" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B589" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="590" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B590" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="591" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B591" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="592" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B592" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B593" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="594" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B594" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="595" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B595" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="596" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B596" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B597" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="598" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B598" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B599" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="600" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B600" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="601" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B601" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="602" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B602" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="603" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B603" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="604" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B604" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="605" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B605" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="606" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B606" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="607" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B607" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="608" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B608" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="609" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B609" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="610" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B610" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="611" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B611" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="612" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B612" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="613" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B613" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="614" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B614" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="615" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B615" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="616" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B616" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="617" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B617" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="618" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B618" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="619" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B619" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="620" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B620" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="621" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B621" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="622" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B622" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="623" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B623" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="624" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B624" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="625" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B625" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="626" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B626" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="627" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B627" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="628" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B628" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="629" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B629" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="630" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B630" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="631" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B631" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="632" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B632" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="633" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B633" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="634" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B634" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="635" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B635" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="636" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B636" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="637" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B637" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="638" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B638" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="639" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B639" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="640" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B640" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="641" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B641" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="642" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B642" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="643" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B643" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="644" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B644" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="645" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B645" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="646" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B646" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="647" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B647" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="648" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B648" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="649" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B649" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="650" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B650" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="651" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B651" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="652" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B652" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="653" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B653" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="654" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B654" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="655" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B655" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="656" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B656" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="657" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B657" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="658" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B658" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="659" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B659" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="660" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B660" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="661" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B661" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="662" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B662" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="663" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B663" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="664" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B664" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="665" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B665" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="666" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B666" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="667" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B667" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="668" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B668" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="669" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B669" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="670" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B670" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="671" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B671" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="672" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B672" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="673" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B673" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="674" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B674" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F65" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F9 A10:F20 A21:F23 A24:F66 A78:F80 A74:F77 A72:F73 A68:F71 A67:F67 A89:F96 A84:F88 A82:F83 A81:F81 A126:F130 A123:F125 A121:F122 A116:F120 A113:F115 A109:F112 A107:F108 A99:F106 A97:F98 A137:F139 A136:F136 A131:F135 A150:F267 A149:F149 A144:F148 A140:F143 A268:F277 A278:F280 A281:F281 A282:F288 A289:F291 A292:F325" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>